--- a/SQL Queries and ERD/ERD Table.xlsx
+++ b/SQL Queries and ERD/ERD Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\Desktop\Mariela\DATA BOOTCAMP\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE0F5B-8E53-45F1-A679-1034D8878EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8037F32A-283C-4D22-98FD-BCF789B1AB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AF1FA7F7-D9EA-4FBD-9886-AF7223034A7E}"/>
+    <workbookView xWindow="28680" yWindow="1110" windowWidth="29040" windowHeight="15840" xr2:uid="{AF1FA7F7-D9EA-4FBD-9886-AF7223034A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>mapped_storeid</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Clean Data</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>Seasons</t>
   </si>
   <si>
@@ -128,26 +125,41 @@
     <t>Month</t>
   </si>
   <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>Numeric - PK</t>
-  </si>
-  <si>
-    <t>int PK</t>
-  </si>
-  <si>
-    <t>text FK</t>
-  </si>
-  <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>Digital Marketing DB - ERD Table</t>
+  </si>
+  <si>
+    <t>bigint PK</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>date - PK</t>
+  </si>
+  <si>
+    <t>text - FK</t>
+  </si>
+  <si>
+    <t>date - FK</t>
+  </si>
+  <si>
+    <t>text - PK</t>
+  </si>
+  <si>
+    <t>numeric - PK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +183,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +221,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,16 +251,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D754284A-7818-4711-BF71-115BD75FBD46}">
-  <dimension ref="B3:E21"/>
+  <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,179 +759,231 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>35</v>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>35</v>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>35</v>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
